--- a/Excel/edit_menu.xlsx
+++ b/Excel/edit_menu.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -157,21 +157,6 @@
     <t>Displays the Preferences dialog. Preferences enable you change most of the default behaviors and settings of Audacity.</t>
   </si>
   <si>
-    <t>मेनू संपादित करा - ऑडेसिटी मॅन्युअल</t>
-  </si>
-  <si>
-    <t>मेनू संपादित करा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>संपादन मेनू मानक संपादन आदेश (पूर्ववत करा, पुन्हा करा, कट करा, कॉपी करा, पेस्ट करा आणि हटवा) तसेच ऑडिओ किंवा लेबले संपादित करण्यासाठी विशिष्ट इतर आदेश प्रदान करतात. या मेन्यू वरुन बर्‍याच कमांड उपलब्ध आहेत त्यामुळे काही कमांडस सबमेनसमध्ये ग्रुप केल्या आहेत.</t>
-  </si>
-  <si>
     <t>अधिक जाणून घेण्यासाठी प्रतिमेवर क्लिक करा</t>
   </si>
   <si>
@@ -181,115 +166,130 @@
     <t>Ctrl + Z पूर्ववत करा</t>
   </si>
   <si>
-    <t>आपण आपल्या प्रकल्पासाठी केलेले अंतिम संपादन ऑपरेशन पूर्ववत करते.</t>
-  </si>
-  <si>
     <t>आपण आपल्याला पाहिजे तितक्या वेळा पूर्ववत करू शकता, विंडो उघडल्यावर परत परत येऊ शकता.</t>
   </si>
   <si>
-    <t>बर्‍याच ऑपरेशन्स पूर्ववत करण्यासाठी व्ह्यू मेनू वरून इतिहास ... निवडा. या मेनू आयटमचे नाव काय पूर्ववत केले जाईल हे प्रतिबिंबित करण्यासाठी बदलेल; आपण आत्ताच काही ऑडिओ रेकॉर्ड केल्यास, मेनू आयटमचे नाव पूर्ववत रेकॉर्ड होईल.</t>
-  </si>
-  <si>
     <t>पुन्हा करा Ctrl + Y</t>
   </si>
   <si>
-    <t>नुकतीच पूर्ववत केलेली कोणतीही संपादन ऑपरेशन्स पुन्हा करा.</t>
-  </si>
-  <si>
-    <t>आपण नवीन संपादन ऑपरेशन केल्यानंतर आपण यापुढे पूर्ववत केलेल्या ऑपरेशन्स पुन्हा करू शकत नाही.</t>
-  </si>
-  <si>
     <t>Ctrl + X कट करा</t>
   </si>
   <si>
-    <t>निवडलेला ऑडिओ डेटा आणि / किंवा लेबले काढून ऑडसिटी क्लिपबोर्डवर ठेवतो. निवडीनंतर ऑडिओ किंवा लेबल डावीकडे हलवा.</t>
-  </si>
-  <si>
     <t>Ctrl + K हटवा</t>
   </si>
   <si>
-    <t>कट प्रमाणेच, परंतु ऑडिओ डेटा आणि / किंवा लेबले काढून टाकतात जे ऑडीसिटी क्लिपबोर्डवर कॉपी केल्याशिवाय सध्या निवडलेले आहेत.</t>
-  </si>
-  <si>
-    <t>Ctrl + C कॉपी करा</t>
-  </si>
-  <si>
-    <t>निवडलेला ऑडिओ डेटा प्रकल्पातून न काढता ऑडसिटी क्लिपबोर्डवर कॉपी करतो.</t>
-  </si>
-  <si>
     <t>Ctrl + V पेस्ट करा</t>
   </si>
   <si>
-    <t>ऑडीसिटी क्लिपबोर्डवर कापला किंवा कॉपी केलेला ऑडिओ पेस्ट करा, एकतर कर्सर बिंदूवर निवडलेल्या ट्रॅकमध्ये यामध्ये समाविष्ट करुन किंवा विद्यमान निवड प्रदेश (चे) पुनर्स्थित करा.</t>
-  </si>
-  <si>
-    <t>डुप्लिकेट सीटीआरएल + डी</t>
-  </si>
-  <si>
-    <t>नवीन क्लिप म्हणून फक्त सद्य निवडीचा एक नवीन ट्रॅक तयार करते.</t>
-  </si>
-  <si>
-    <t>विशेष काढा</t>
-  </si>
-  <si>
-    <t>हटवा विशेष सबमेनूमध्ये ऑडिओ आणि लेबले अधिक "प्रगत" काढण्याची आज्ञा आहेत:</t>
-  </si>
-  <si>
-    <t>स्प्लिट कट आणि स्प्लिट डिलीट हा एक "स्पेशल" कट किंवा डिलीट आहे जो ऑडिओ किंवा लेबलेला डावीकडे हलविण्याऐवजी निवडीच्या उजवीकडे ठेवतो.</t>
-  </si>
-  <si>
-    <t>मौन ऑडिओ मौजूदा निवडीची जागा शांततेने घेते.</t>
-  </si>
-  <si>
     <t>ट्रिम ऑडिओ निवडलेल्या भागाशिवाय वर्तमान क्लिपमधून सर्व ऑडिओ काढते, उर्वरित, निवडलेले, ऑडिओमधून स्वतःची क्लिप तयार करते.</t>
   </si>
   <si>
-    <t>क्लिप सीमा</t>
-  </si>
-  <si>
-    <t>क्लिप बाउंडरीज सबमेनूमध्ये ऑडिओ ट्रॅकमध्ये स्वतंत्र क्लिप तयार करण्यासाठी किंवा काढण्यासाठी आज्ञा आहेत. ऑडिओ ट्रॅकच्या आत असलेली क्लिप त्या ट्रॅकचा वेगळा विभाग आहे जो विभाजित झाला आहे जेणेकरून ट्रॅकमधील इतर क्लिपच्या तुलनेत हे काहीसे स्वतंत्रपणे हाताळू शकते.</t>
-  </si>
-  <si>
-    <t>लेबले</t>
-  </si>
-  <si>
-    <t>लेबले सबमेनूमध्ये अशी आज्ञा आहेत जी आपल्याला लेबले जोडण्यास आणि संपादित करण्यास सक्षम करतात.</t>
-  </si>
-  <si>
-    <t>ही आज्ञा लेबल एडिटरची विनंती करते जी आपल्याला कीबोर्ड वापरुन लेबल ट्रॅक जोडू किंवा काढू देते आणि त्यांची लेबले पूर्णपणे संपादित करू देते, जेणेकरून दृष्टिहीन वापरकर्त्यांसाठी उपयुक्त आहे.</t>
-  </si>
-  <si>
-    <t>कीबोर्ड-प्रवेशयोग्य टॅब्यूलर व्ह्यूमध्ये आपले सर्व लेबल दर्शविणारा एक संवाद बॉक्स आणतो. संवादातील सुलभ बटणे आपल्‍याला लेबल घालू किंवा हटवू देतील किंवा फायलीवर लेबल आयात आणि निर्यात करु देतील. अधिक माहितीसाठी लेबल संपादक पहा.</t>
-  </si>
-  <si>
-    <t>संपादन मेनू पहा: या उपमेनूच्या तपशीलांसाठी लेबले.</t>
-  </si>
-  <si>
-    <t>लेबल केलेला ऑडिओ</t>
-  </si>
-  <si>
-    <t>लेबल केलेले ऑडिओ सबमेनूमध्ये असे आदेश आहेत जे एकाधिक पूर्णपणे निवडलेल्या श्रेणी लेबलांच्या ऑडिओवर संपादन मेनू ऑपरेशन्सची वेळ बचत मार्ग प्रदान करतात.</t>
-  </si>
-  <si>
-    <t>लेबल ट्रॅकमध्ये काढलेल्या निवडीच्या आत असलेल्या सर्व लेबल ऑडिओ प्रदेशांवर आदेश लागू होतात. निवड लेबलच्या सीमांच्या पलीकडे वाढू शकते परंतु लेबल न केलेले ऑडिओ आणि ज्याचे प्रदेश लेबल केवळ अंशतः निवडीमध्ये असेल त्या ऑडिओवर कारवाई केली जाणार नाही.</t>
-  </si>
-  <si>
-    <t>कोणत्याही ऑडिओ ट्रॅक निवडीमध्ये समाविष्ट न केल्यास, लेबल केलेले ऑडिओ आदेश प्रकल्पातील सर्व ऑडिओ ट्रॅकवर लागू होतात. तथापि आपण निवडीमध्ये काही विशिष्ट ऑडिओ ट्रॅक समाविष्ट करत असल्यास, लेबल केलेले ऑडिओ आदेश केवळ त्या निवडलेल्या ऑडिओ ट्रॅकवर परिणाम करतील.</t>
-  </si>
-  <si>
-    <t>या उपमेनूच्या तपशीलांसाठी संपादन मेनू: लेबल केलेला ऑडिओ पहा.</t>
-  </si>
-  <si>
     <t>मेटाडेटा ...</t>
   </si>
   <si>
-    <t>निर्यात केलेल्या फायलींवर लागू होणारे मेटाडेटा टॅग संपादित करण्यासाठी हे कार्य वापरा.</t>
-  </si>
-  <si>
     <t>प्राधान्ये ... Ctrl + P</t>
   </si>
   <si>
-    <t>प्राधान्ये संवाद दाखवतो. प्राधान्ये आपल्याला बहुतेक डीफॉल्ट वर्तन आणि ऑडसिटीची सेटिंग्ज बदलण्यास सक्षम करतात.</t>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>संपादन मेनू</t>
+  </si>
+  <si>
+    <t>संपादन मेनू - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>संपादन मेनू मानक संपादन आदेश (पूर्ववत करा, पुन्हा करा, कट करा, नक्कल करा, पेस्ट करा आणि हटवा) तसेच ध्वनी किंवा लेबल संपादित करण्यासाठी विशिष्ट इतर आदेश प्रदान करतात. या मेन्यू वरुन बर्‍याच आज्ञा उपलब्ध आहेत त्यामुळे काही आज्ञा उप-मेन्यूमध्ये संघटित केल्या आहेत.</t>
+  </si>
+  <si>
+    <t>आपण आपल्या प्रकल्पासाठी केलेले अंतिम संपादन कार्य पूर्ववत करते.</t>
+  </si>
+  <si>
+    <t>बर्‍याच कार्य पूर्ववत करण्यासाठी व्ह्यू मेनू वरून इतिहास ... निवडा. या मेनू घटकाचे नाव काय पूर्ववत केले जाईल हे प्रतिबिंबित करण्यासाठी बदलेल; आपण आत्ताच काही ध्वनिमुद्रण केल्यास, मेनू घटकाचे नाव पूर्ववत मुद्रित होईल.</t>
+  </si>
+  <si>
+    <t>नुकतीच पूर्ववत केलेली कोणतीही संपादन कार्य पुन्हा करा.</t>
+  </si>
+  <si>
+    <t>आपण नवीन संपादन कार्य केल्यानंतर आपण यापुढे पूर्ववत केलेल्या कार्य पुन्हा करू शकत नाही.</t>
+  </si>
+  <si>
+    <t>निवडलेला ध्वनी डेटा  आणि / किंवा लेबले काढून ओड्यासिटी क्लिपबोर्डवर ठेवतो. निवडीनंतर ध्वनी किंवा लेबल डावीकडे हलवा.</t>
+  </si>
+  <si>
+    <t>कट प्रमाणेच, परंतु ध्वनी डेटा आणि / किंवा लेबल काढून टाकतात जे ओड्यासिटी क्लिपबोर्डवर नक्कल केल्याशिवाय सध्या निवडलेले आहेत.</t>
+  </si>
+  <si>
+    <t>Ctrl + C नक्कल करा</t>
+  </si>
+  <si>
+    <t>निवडलेला ध्वनी डेटा प्रकल्पातून न काढता ओड्यासिटी क्लिपबोर्डवर नक्कल करतो.</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी क्लिपबोर्डवर कट किंवा नक्कल केलेला ध्वनी पेस्ट करा, एकतर कर्सर बिंदूवर निवडलेल्या गीतपट्टामध्ये यामध्ये समाविष्ट करुन किंवा विद्यमान निवड प्रदेश (चे) पुनर्स्थित करा.</t>
+  </si>
+  <si>
+    <t>दुसरी प्रत Ctrl + D</t>
+  </si>
+  <si>
+    <t>नवीन फित म्हणून फक्त सद्य निवडीचा एक नवीन गीतपट्टा तयार करते.</t>
+  </si>
+  <si>
+    <t>विशेष काढून टाका</t>
+  </si>
+  <si>
+    <t>विशेष काढा उप मेनूमध्ये ध्वनी आणि लेबल अधिक "प्रगत" काढण्याची आज्ञा आहेत:</t>
+  </si>
+  <si>
+    <t>विभाजित कट आणि विभाजित डिलीट हा एक "विशेष" कट किंवा डिलीट आहे जो ध्वनी किंवा लेबलला डावीकडे हलविण्याऐवजी निवडीच्या उजवीकडे ठेवतो.</t>
+  </si>
+  <si>
+    <t>मौन ध्वनी विद्यमान निवडीची जागा शांततेने घेते.</t>
+  </si>
+  <si>
+    <t>फितीची सीमा</t>
+  </si>
+  <si>
+    <t>फितीची सीमा उप मेनूमध्ये गीतपट्टामध्ये स्वतंत्र फीत तयार करण्यासाठी किंवा काढण्यासाठी आज्ञा आहेत. गीतपट्टाच्या आत असलेली फीत त्या गीतपट्टाचा वेगळा विभाग आहे जो विभाजित झाला आहे जेणेकरून गीतपट्टामधील इतर फितीच्या तुलनेत हे काहीसे स्वतंत्रपणे हाताळू शकते.</t>
+  </si>
+  <si>
+    <t>लेबल</t>
+  </si>
+  <si>
+    <t>लेबल उप मेनूमध्ये अशी आज्ञा आहेत जी आपल्याला लेबल जोडण्यास आणि संपादित करण्यास सक्षम करतात.</t>
+  </si>
+  <si>
+    <t>कीबोर्ड-प्रवेशयोग्य तक्त्याच्या दृश्यमध्ये आपले सर्व लेबल दर्शविणारा एक संवाद बॉक्स आणतो. संवादातील सुलभ बटणे आपल्‍याला लेबल घालू किंवा हटवू देतील किंवा धारिकांवर लेबल आयात आणि निर्यात करु देतील. अधिक माहितीसाठी लेबल संपादक पहा.</t>
+  </si>
+  <si>
+    <t>तपशीलांसाठी संपादन मेनू : लेबल उपमेनू पहा.</t>
+  </si>
+  <si>
+    <t>ही आज्ञा लेबल संपादकाची विनंती करते जी आपल्याला कीबोर्ड वापरुन लेबलपट्टा जोडू किंवा काढू देते आणि त्यांची लेबल पूर्णपणे संपादित करू देते, जेणेकरून दृष्टिहीन वापरकर्त्यांसाठी उपयुक्त आहे.</t>
+  </si>
+  <si>
+    <t>लेबल केलेला ध्वनी</t>
+  </si>
+  <si>
+    <t>लेबल केलेले ध्वनी उप-मेनूमध्ये असे आदेश आहेत जे एकाधिक पूर्णपणे निवडलेल्या श्रेणी लेबलांच्या ध्वनीवर संपादन मेनू कर्याची वेळ बचत मार्ग प्रदान करतात.</t>
+  </si>
+  <si>
+    <t>लेबलपट्टामध्ये काढलेल्या निवडीच्या आत असलेल्या सर्व लेबल ध्वनी प्रदेशांवर आदेश लागू होतात. निवड लेबलच्या सीमांच्या पलीकडे वाढू शकते परंतु लेबल न केलेले ध्वनी आणि ज्याचे प्रदेश लेबल केवळ अंशतः निवडीमध्ये असेल त्या ध्वनीवर कारवाई केली जाणार नाही.</t>
+  </si>
+  <si>
+    <t>कोणत्याही ध्वनिपट्टा निवडीमध्ये समाविष्ट न केल्यास, लेबल केलेले ध्वनी आदेश प्रकल्पातील सर्व ध्वनिपट्टावर लागू होतात. तथापि आपण निवडीमध्ये काही विशिष्ट ध्वनिपट्टा समाविष्ट करत असल्यास, लेबल केलेले ध्वनी आदेश केवळ त्या निवडलेल्या ध्वनिपट्टावर परिणाम करतील.</t>
+  </si>
+  <si>
+    <t>तपशीलांसाठी संपादन मेनू: लेबल केलेला ध्वनी उपमेनू पहा.</t>
+  </si>
+  <si>
+    <t>निर्यात केलेल्या धारिकांवर लागू होणारे मेटाडेटा टॅग संपादित करण्यासाठी हे कार्य वापरा.</t>
+  </si>
+  <si>
+    <t>प्राधान्ये संवाद दाखवतो. प्राधान्ये आपल्याला बहुतेक डीफॉल्ट वर्तन आणि ओड्यासिटीची सेटिंग्ज बदलण्यास सक्षम करतात.</t>
   </si>
 </sst>
 </file>
@@ -348,11 +348,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,9 +650,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
@@ -669,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -680,7 +687,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -691,7 +698,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -702,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -712,8 +719,8 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>51</v>
+      <c r="C6" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -724,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -735,7 +742,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -746,7 +753,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -757,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -768,7 +775,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -779,7 +786,7 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -790,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -801,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -812,7 +819,7 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -823,7 +830,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -834,7 +841,7 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -845,7 +852,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -856,7 +863,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -867,7 +874,7 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -878,7 +885,7 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -889,7 +896,7 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -900,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -911,7 +918,7 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -922,7 +929,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -933,7 +940,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -944,7 +951,7 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -955,7 +962,7 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -966,7 +973,7 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -977,7 +984,7 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -988,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -999,7 +1006,7 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1010,7 +1017,7 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1021,7 +1028,7 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1032,7 +1039,7 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1043,7 +1050,7 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1054,7 +1061,7 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1065,7 +1072,7 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1076,7 +1083,7 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1087,7 +1094,7 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1098,7 +1105,7 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1109,7 +1116,7 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1120,7 +1127,7 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1131,7 +1138,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1142,7 +1149,7 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1158,5 +1165,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>